--- a/Analisimetriche/Excel/Grafici.xlsx
+++ b/Analisimetriche/Excel/Grafici.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Screen progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\UniPD-IdS-HW2-main\UniPD-IdS-HW2-main\Analisimetriche\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEBCAE1-C923-4448-AED5-615D5568914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AA3DB-1CCA-4BAB-8CEB-3A8D1AD2416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>4.0.0</t>
   </si>
@@ -59,11 +59,68 @@
   <si>
     <t>LOC</t>
   </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>math.la</t>
+  </si>
+  <si>
+    <t>interop.tensorflow</t>
+  </si>
+  <si>
+    <t>org.tribuo</t>
+  </si>
+  <si>
+    <t>impl</t>
+  </si>
+  <si>
+    <t>classification.evaluation</t>
+  </si>
+  <si>
+    <t>datasource</t>
+  </si>
+  <si>
+    <t>classification.explanation.lime</t>
+  </si>
+  <si>
+    <t>data.csv</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>regression.slm</t>
+  </si>
+  <si>
+    <t>util.infotheory.impl</t>
+  </si>
+  <si>
+    <t>classification.sgd.crf</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>util.tokens.impl</t>
+  </si>
+  <si>
+    <t>regression.rtree.impl</t>
+  </si>
+  <si>
+    <t>cambia datasource e infotheory</t>
+  </si>
+  <si>
+    <t>Nome package</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -126,62 +184,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>MEDIE METRICHE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -226,54 +229,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$4:$G$4</c:f>
+              <c:f>Foglio1!$C$4:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>WMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>DIT</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>NOC</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>CBO</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>RFC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>WMC</c:v>
+                <c:pt idx="5">
+                  <c:v>LCOM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$G$5</c:f>
+              <c:f>Foglio1!$C$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7.9436860068259385</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.41808873720136519</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.72013651877133111</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.6382252559726962</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.1501706484641634</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9436860068259385</c:v>
+                <c:pt idx="5">
+                  <c:v>0.25465870307167232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D248-4BD0-8F14-0E197610D452}"/>
+              <c16:uniqueId val="{00000000-A37A-4A1E-8FCD-7F1D29A33DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,54 +324,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$4:$G$4</c:f>
+              <c:f>Foglio1!$C$4:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>WMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>DIT</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>NOC</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>CBO</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>RFC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>WMC</c:v>
+                <c:pt idx="5">
+                  <c:v>LCOM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$G$6</c:f>
+              <c:f>Foglio1!$C$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>7.9795918367346941</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.41666666666666669</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.72108843537414968</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.639455782312925</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.158163265306122</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9795918367346941</c:v>
+                <c:pt idx="5">
+                  <c:v>0.25511564625850336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D248-4BD0-8F14-0E197610D452}"/>
+              <c16:uniqueId val="{00000001-A37A-4A1E-8FCD-7F1D29A33DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -404,54 +419,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$4:$G$4</c:f>
+              <c:f>Foglio1!$C$4:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>WMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>DIT</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>NOC</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>CBO</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>RFC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>WMC</c:v>
+                <c:pt idx="5">
+                  <c:v>LCOM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$7:$G$7</c:f>
+              <c:f>Foglio1!$C$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8.3343653250773997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.43962848297213625</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.72291021671826627</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.9040247678018574</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.7368421052631575</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3343653250773997</c:v>
+                <c:pt idx="5">
+                  <c:v>0.25509322033898302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D248-4BD0-8F14-0E197610D452}"/>
+              <c16:uniqueId val="{00000002-A37A-4A1E-8FCD-7F1D29A33DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -493,58 +514,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$4:$G$4</c:f>
+              <c:f>Foglio1!$C$4:$H$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>WMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>DIT</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>NOC</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>CBO</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>RFC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>WMC</c:v>
+                <c:pt idx="5">
+                  <c:v>LCOM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$8:$G$8</c:f>
+              <c:f>Foglio1!$C$8:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8.3410852713178301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.43962848297213625</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.72291021671826627</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.9040247678018574</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.7368421052631575</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.3410852713178301</c:v>
+                <c:pt idx="5">
+                  <c:v>0.25447368421052635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D248-4BD0-8F14-0E197610D452}"/>
+              <c16:uniqueId val="{00000003-A37A-4A1E-8FCD-7F1D29A33DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -554,11 +582,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="1256805855"/>
-        <c:axId val="1256806271"/>
+        <c:axId val="1048853647"/>
+        <c:axId val="1048855727"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1256805855"/>
+        <c:axId val="1048853647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +629,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1256806271"/>
+        <c:crossAx val="1048855727"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1256806271"/>
+        <c:axId val="1048855727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,14 +687,698 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1256805855"/>
+        <c:crossAx val="1048853647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$60:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>math.la</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>org.tribuo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>interop.tensorflow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>classification.evaluation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>impl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>util</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>classification.explanation.lime</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>transform</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>data.csv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>regression.slm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>util.infotheory.impl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>classification.sgd.crf</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sequence</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>util.tokens.impl</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>regression.rtree.impl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$60:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B77-452B-BD77-B17A60ABB24B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$60:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>math.la</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>org.tribuo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>interop.tensorflow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>classification.evaluation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>impl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>util</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>classification.explanation.lime</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>transform</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>data.csv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>regression.slm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>util.infotheory.impl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>classification.sgd.crf</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sequence</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>util.tokens.impl</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>regression.rtree.impl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$60:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B77-452B-BD77-B17A60ABB24B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="-48"/>
+        <c:axId val="1048870463"/>
+        <c:axId val="1048871295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1048870463"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048871295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1048871295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048870463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -786,6 +1498,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
@@ -1305,27 +2057,546 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41412</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>604629</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>182216</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>256763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CE7B26-305B-46E8-B307-0879717A7875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB38CC4B-7869-47EF-99E4-EF0058B9006A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,6 +2609,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662611</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57F86B8-0ABE-447B-9BD2-58C141CA41D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1609,139 +2916,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:I8"/>
+  <dimension ref="B4:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
       <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>7.9436860068259385</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.41808873720136519</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>0.72013651877133111</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="1">
         <v>3.6382252559726962</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <v>8.1501706484641634</v>
       </c>
-      <c r="G5">
-        <v>7.9436860068259385</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="1">
+        <v>0.25465870307167232</v>
+      </c>
+      <c r="I5" s="1">
         <v>63.950511945392492</v>
-      </c>
-      <c r="I5">
-        <v>798.75</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>7.9795918367346941</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.72108843537414968</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>3.639455782312925</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>8.158163265306122</v>
       </c>
-      <c r="G6">
-        <v>7.9795918367346941</v>
-      </c>
-      <c r="H6">
+      <c r="H6" s="1">
+        <v>0.25511564625850336</v>
+      </c>
+      <c r="I6" s="1">
         <v>64.454081632653057</v>
-      </c>
-      <c r="I6">
-        <v>798.51685393258424</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <v>8.3343653250773997</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.43962848297213625</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>0.72291021671826627</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <v>3.9040247678018574</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="1">
         <v>8.7368421052631575</v>
       </c>
-      <c r="G7">
-        <v>8.3343653250773997</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="1">
+        <v>0.25509322033898302</v>
+      </c>
+      <c r="I7" s="1">
         <v>67.142414860681114</v>
-      </c>
-      <c r="I7">
-        <v>788.03921568627447</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>8.3410852713178301</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.43962848297213625</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>0.72291021671826627</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>3.9040247678018574</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>8.7368421052631575</v>
       </c>
-      <c r="G8">
-        <v>8.3410852713178301</v>
-      </c>
-      <c r="H8">
+      <c r="H8" s="1">
+        <v>0.25447368421052635</v>
+      </c>
+      <c r="I8" s="1">
         <v>67.142414860681114</v>
       </c>
-      <c r="I8">
-        <v>788.03921568627447</v>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>810</v>
+      </c>
+      <c r="E22">
+        <v>810</v>
+      </c>
+      <c r="F22">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>447</v>
+      </c>
+      <c r="E23">
+        <v>447</v>
+      </c>
+      <c r="F23">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>293</v>
+      </c>
+      <c r="E24">
+        <v>293</v>
+      </c>
+      <c r="F24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>250</v>
+      </c>
+      <c r="F25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>246</v>
+      </c>
+      <c r="E26">
+        <v>246</v>
+      </c>
+      <c r="F26">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>226</v>
+      </c>
+      <c r="E27">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <v>268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>199</v>
+      </c>
+      <c r="F28">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>810</v>
+      </c>
+      <c r="M28">
+        <v>810</v>
+      </c>
+      <c r="N28">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>169</v>
+      </c>
+      <c r="E29">
+        <v>169</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>447</v>
+      </c>
+      <c r="M29">
+        <v>447</v>
+      </c>
+      <c r="N29">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>148</v>
+      </c>
+      <c r="E30">
+        <v>168</v>
+      </c>
+      <c r="F30">
+        <v>168</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>293</v>
+      </c>
+      <c r="M30">
+        <v>293</v>
+      </c>
+      <c r="N30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>164</v>
+      </c>
+      <c r="E31">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>250</v>
+      </c>
+      <c r="M31">
+        <v>250</v>
+      </c>
+      <c r="N31">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>246</v>
+      </c>
+      <c r="M32">
+        <v>246</v>
+      </c>
+      <c r="N32">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>168</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>226</v>
+      </c>
+      <c r="M33">
+        <v>226</v>
+      </c>
+      <c r="N33">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>160</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>169</v>
+      </c>
+      <c r="M34">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>148</v>
+      </c>
+      <c r="M35">
+        <v>168</v>
+      </c>
+      <c r="N35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>164</v>
+      </c>
+      <c r="M37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>810</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>447</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>293</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>226</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>810</v>
+      </c>
+      <c r="D60">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>447</v>
+      </c>
+      <c r="D61">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>293</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>246</v>
+      </c>
+      <c r="D63">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>250</v>
+      </c>
+      <c r="D64">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>226</v>
+      </c>
+      <c r="D65">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>169</v>
+      </c>
+      <c r="D66">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>148</v>
+      </c>
+      <c r="D68">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>165</v>
+      </c>
+      <c r="D69">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>156</v>
+      </c>
+      <c r="D70">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>151</v>
+      </c>
+      <c r="D71">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>216</v>
+      </c>
+      <c r="D72">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>151</v>
+      </c>
+      <c r="D73">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>120</v>
+      </c>
+      <c r="D74">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
